--- a/src/main/resources/static/file/终端.xlsx
+++ b/src/main/resources/static/file/终端.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>tsid</t>
   </si>
@@ -70,15 +70,6 @@
     <t>meid</t>
   </si>
   <si>
-    <t>saletype</t>
-  </si>
-  <si>
-    <t>resetwifi</t>
-  </si>
-  <si>
-    <t>androidversion</t>
-  </si>
-  <si>
     <t>终端编号</t>
   </si>
   <si>
@@ -115,16 +106,7 @@
     <t>是否支持软卡</t>
   </si>
   <si>
-    <t>代理商ID</t>
-  </si>
-  <si>
-    <t>销售类型</t>
-  </si>
-  <si>
-    <t>是否重置wifi</t>
-  </si>
-  <si>
-    <t>androidVersion</t>
+    <t>部门ID</t>
   </si>
 </sst>
 </file>
@@ -132,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -161,8 +143,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,122 +251,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,25 +289,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,19 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,84 +463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,48 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +480,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,17 +557,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,50 +580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -606,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,7 +1088,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1133,7 +1115,7 @@
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,79 +1170,61 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/file/终端.xlsx
+++ b/src/main/resources/static/file/终端.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzhiheng/work/java/kachi/src/main/resources/static/file/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
+    <workbookView windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="终端信息m_terminal" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>tsid</t>
   </si>
@@ -80,7 +67,19 @@
     <t>departmentid</t>
   </si>
   <si>
-    <t>meid</t>
+    <t>AutoOrder</t>
+  </si>
+  <si>
+    <t>sendWiFiPass</t>
+  </si>
+  <si>
+    <t>maxDayData</t>
+  </si>
+  <si>
+    <t>dayspeedlimit</t>
+  </si>
+  <si>
+    <t>sendNewSSID</t>
   </si>
   <si>
     <t>终端编号</t>
@@ -122,14 +121,32 @@
     <t>部门ID</t>
   </si>
   <si>
-    <t>sendWiFiPass</t>
+    <t>自动下单</t>
+  </si>
+  <si>
+    <t>发下给终端更新的WiFi密码</t>
+  </si>
+  <si>
+    <t>每日最大流量KB</t>
+  </si>
+  <si>
+    <t>超过最大流量后限速速率Kbps</t>
+  </si>
+  <si>
+    <t>更新SSID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,29 +161,376 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -174,13 +538,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,18 +794,75 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -488,39 +1151,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
-    <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="13.1640625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="13.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9" style="2"/>
-    <col min="19" max="19" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="17.83203125" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.6634615384615" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.3365384615385" style="3" customWidth="1"/>
+    <col min="3" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="12.6634615384615" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.6634615384615" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.3365384615385" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.6634615384615" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.6634615384615" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="13.1634615384615" style="3" customWidth="1"/>
+    <col min="16" max="17" width="13.6634615384615" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.3365384615385" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.8846153846154" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.8365384615385" style="3" customWidth="1"/>
+    <col min="21" max="21" width="30.1923076923077" style="3" customWidth="1"/>
+    <col min="22" max="22" width="17.6923076923077" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,72 +1239,90 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>31</v>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/file/终端.xlsx
+++ b/src/main/resources/static/file/终端.xlsx
@@ -1159,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1" outlineLevelRow="1"/>

--- a/src/main/resources/static/file/终端.xlsx
+++ b/src/main/resources/static/file/终端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="终端信息m_terminal" sheetId="9" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>departmentid</t>
   </si>
   <si>
-    <t>AutoOrder</t>
+    <t>meid</t>
   </si>
   <si>
     <t>sendWiFiPass</t>
@@ -121,7 +121,7 @@
     <t>部门ID</t>
   </si>
   <si>
-    <t>自动下单</t>
+    <t>WCDMA的MEID</t>
   </si>
   <si>
     <t>发下给终端更新的WiFi密码</t>
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -192,8 +192,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,18 +230,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,60 +286,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -291,48 +329,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -351,73 +351,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,103 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,11 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +559,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,198 +636,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,9 +801,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1160,7 +1157,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1" outlineLevelRow="1"/>
@@ -1176,7 +1173,7 @@
     <col min="14" max="14" width="9" style="3"/>
     <col min="15" max="15" width="13.1634615384615" style="3" customWidth="1"/>
     <col min="16" max="17" width="13.6634615384615" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.3365384615385" style="3" customWidth="1"/>
+    <col min="18" max="18" width="18.7692307692308" style="3" customWidth="1"/>
     <col min="19" max="19" width="22.8846153846154" style="3" customWidth="1"/>
     <col min="20" max="20" width="17.8365384615385" style="3" customWidth="1"/>
     <col min="21" max="21" width="30.1923076923077" style="3" customWidth="1"/>
@@ -1242,7 +1239,7 @@
       <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -1307,7 +1304,7 @@
       <c r="R2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
